--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Thomas</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>mise en place</t>
+  </si>
+  <si>
+    <t>Semaine lundi 7 / 11</t>
+  </si>
+  <si>
+    <t>Semaine lundi 14 / 11</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +154,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -457,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,11 +478,11 @@
     <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>16</v>
@@ -487,8 +496,14 @@
       <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -504,8 +519,10 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -521,8 +538,10 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -538,39 +557,51 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
